--- a/ConsortiumTicket.xlsx
+++ b/ConsortiumTicket.xlsx
@@ -405,7 +405,7 @@
     <t xml:space="preserve">2.Understood the discription of the new PHM ticket</t>
   </si>
   <si>
-    <t xml:space="preserve">3.Downloaded the new code as the files mentioned in the description of the ticket were not present</t>
+    <t xml:space="preserve">3.Downloded the new code as old code dose not have </t>
   </si>
   <si>
     <t xml:space="preserve">4.Understood the functions that are specified in the new PHM ticket. 
@@ -573,8 +573,8 @@
   </sheetPr>
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C70" activeCellId="0" sqref="C70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D52" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K75" activeCellId="0" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
